--- a/teaching/traditional_assets/database/data/south_africa/south_africa_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/south_africa/south_africa_bank_money_center.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ7"/>
+  <dimension ref="A1:AQ8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.06660000000000001</v>
+        <v>0.01485</v>
       </c>
       <c r="E2">
-        <v>0.077</v>
+        <v>-0.062</v>
       </c>
       <c r="F2">
-        <v>0.07135</v>
+        <v>0.0216</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,91 +606,91 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.004018875664947148</v>
+        <v>1.660580936412585e-06</v>
       </c>
       <c r="J2">
-        <v>0.003028995605599465</v>
+        <v>1.334264041243421e-06</v>
       </c>
       <c r="K2">
-        <v>4395.3</v>
+        <v>2335.1</v>
       </c>
       <c r="L2">
-        <v>0.236755778439727</v>
+        <v>0.1494703152504401</v>
       </c>
       <c r="M2">
-        <v>2102.94</v>
+        <v>1354.339</v>
       </c>
       <c r="N2">
-        <v>0.04429209606793755</v>
+        <v>0.03718545792011246</v>
       </c>
       <c r="O2">
-        <v>0.4784519827998089</v>
+        <v>0.5799918633034987</v>
       </c>
       <c r="P2">
-        <v>1835.84</v>
+        <v>1169.639</v>
       </c>
       <c r="Q2">
-        <v>0.03866643919720128</v>
+        <v>0.0321142356649424</v>
       </c>
       <c r="R2">
-        <v>0.4176825245148226</v>
+        <v>0.50089460836795</v>
       </c>
       <c r="S2">
-        <v>267.1</v>
+        <v>184.7</v>
       </c>
       <c r="T2">
-        <v>0.1270126584686201</v>
+        <v>0.1363764906718333</v>
       </c>
       <c r="U2">
-        <v>9533.4</v>
+        <v>11723.4</v>
       </c>
       <c r="V2">
-        <v>0.2007923519710861</v>
+        <v>0.3218839576949689</v>
       </c>
       <c r="W2">
-        <v>0.1597521461736313</v>
+        <v>0.06233712740758868</v>
       </c>
       <c r="X2">
-        <v>0.07358402387321815</v>
+        <v>0.09416848029118631</v>
       </c>
       <c r="Y2">
-        <v>0.08616812230041317</v>
+        <v>-0.03183135288359763</v>
       </c>
       <c r="Z2">
-        <v>0.3673671835591285</v>
+        <v>0.2653619908478321</v>
       </c>
       <c r="AA2">
-        <v>0.0007373716682430524</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05207449625836538</v>
+        <v>0.05761080692926477</v>
       </c>
       <c r="AC2">
-        <v>-0.05175362317446962</v>
+        <v>-0.05761080692926477</v>
       </c>
       <c r="AD2">
-        <v>29132.2</v>
+        <v>36910.8</v>
       </c>
       <c r="AE2">
-        <v>921.9538947147784</v>
+        <v>0.03028787160447198</v>
       </c>
       <c r="AF2">
-        <v>30054.15389471478</v>
+        <v>36910.83028787161</v>
       </c>
       <c r="AG2">
-        <v>20520.75389471478</v>
+        <v>25187.4302878716</v>
       </c>
       <c r="AH2">
-        <v>0.3876302091173464</v>
+        <v>0.5033384476466117</v>
       </c>
       <c r="AI2">
-        <v>0.4861357546939534</v>
+        <v>0.5341628633915537</v>
       </c>
       <c r="AJ2">
-        <v>0.3017773285506345</v>
+        <v>0.4088295774501264</v>
       </c>
       <c r="AK2">
-        <v>0.3924476180286587</v>
+        <v>0.4389818374998662</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>112.4795366795367</v>
+        <v>1153462.5</v>
       </c>
       <c r="AP2">
-        <v>79.23071001820377</v>
+        <v>787107.1964959876</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +713,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Standard Bank Group Limited (JSE:SBK)</t>
+          <t>Capitec Bank Holdings Limited (JSE:CPI)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,13 +722,13 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.06660000000000001</v>
+        <v>0.102</v>
       </c>
       <c r="E3">
-        <v>0.114</v>
+        <v>0.0653</v>
       </c>
       <c r="F3">
-        <v>0.0718</v>
+        <v>0.122</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -737,103 +737,97 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.004005088022532675</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.003089285638319462</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>2034</v>
+        <v>231.1</v>
       </c>
       <c r="L3">
-        <v>0.2329229888348125</v>
+        <v>0.2867601439384539</v>
       </c>
       <c r="M3">
-        <v>651.5</v>
+        <v>13.4</v>
       </c>
       <c r="N3">
-        <v>0.03387812196123906</v>
+        <v>0.001185389630494591</v>
       </c>
       <c r="O3">
-        <v>0.3203048180924287</v>
+        <v>0.05798355690177413</v>
       </c>
       <c r="P3">
-        <v>614.5</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.03195411503481412</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.3021140609636185</v>
+        <v>-0</v>
       </c>
       <c r="S3">
-        <v>37</v>
+        <v>13.4</v>
       </c>
       <c r="T3">
-        <v>0.056792018419033</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>5024.7</v>
+        <v>3054.1</v>
       </c>
       <c r="V3">
-        <v>0.2612853406272262</v>
+        <v>0.2701715276487708</v>
       </c>
       <c r="W3">
-        <v>0.1691574561512936</v>
+        <v>0.1521696187528807</v>
       </c>
       <c r="X3">
-        <v>0.05645932528745275</v>
+        <v>0.04660605020090043</v>
       </c>
       <c r="Y3">
-        <v>0.1126981308638409</v>
+        <v>0.1055635685519803</v>
       </c>
       <c r="Z3">
-        <v>0.6135765568989618</v>
+        <v>-1.683975176045301</v>
       </c>
       <c r="AA3">
-        <v>0.001895513245237467</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.05041630282688441</v>
+        <v>0.04636309190295776</v>
       </c>
       <c r="AC3">
-        <v>-0.04852078958164695</v>
+        <v>-0.04636309190295776</v>
       </c>
       <c r="AD3">
-        <v>6456.7</v>
+        <v>316.7</v>
       </c>
       <c r="AE3">
-        <v>435.627844216167</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>6892.327844216167</v>
+        <v>316.7</v>
       </c>
       <c r="AG3">
-        <v>1867.627844216167</v>
+        <v>-2737.4</v>
       </c>
       <c r="AH3">
-        <v>0.2638410786574336</v>
+        <v>0.02725238791842354</v>
       </c>
       <c r="AI3">
-        <v>0.32252311014567</v>
+        <v>0.1708198489751888</v>
       </c>
       <c r="AJ3">
-        <v>0.08852018311622517</v>
+        <v>-0.3195321528207403</v>
       </c>
       <c r="AK3">
-        <v>0.1142606536874714</v>
+        <v>2.280976585284559</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>52.88042588042588</v>
-      </c>
-      <c r="AP3">
-        <v>15.29588734001775</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +838,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sasfin Holdings Limited (JSE:SFN)</t>
+          <t>Standard Bank Group Limited (JSE:SBK)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -853,10 +847,13 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0595</v>
+        <v>0.0222</v>
       </c>
       <c r="E4">
-        <v>-0.00092</v>
+        <v>-0.062</v>
+      </c>
+      <c r="F4">
+        <v>0.0274</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -865,34 +862,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01645407838257876</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01265867096899726</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>11.5</v>
+        <v>973.8</v>
       </c>
       <c r="L4">
-        <v>0.1416256157635468</v>
+        <v>0.1493420850841947</v>
       </c>
       <c r="M4">
-        <v>4.64</v>
+        <v>2.36</v>
       </c>
       <c r="N4">
-        <v>0.06998491704374057</v>
+        <v>0.0001710293648723077</v>
       </c>
       <c r="O4">
-        <v>0.4034782608695652</v>
+        <v>0.002423495584308893</v>
       </c>
       <c r="P4">
-        <v>4.64</v>
+        <v>2.36</v>
       </c>
       <c r="Q4">
-        <v>0.06998491704374057</v>
+        <v>0.0001710293648723077</v>
       </c>
       <c r="R4">
-        <v>0.4034782608695652</v>
+        <v>0.002423495584308893</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -901,67 +898,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>83.8</v>
+        <v>6190.8</v>
       </c>
       <c r="V4">
-        <v>1.26395173453997</v>
+        <v>0.448647708496391</v>
       </c>
       <c r="W4">
-        <v>0.1017699115044248</v>
+        <v>0.07683810185112125</v>
       </c>
       <c r="X4">
-        <v>0.1804017691478789</v>
+        <v>0.06320525577116365</v>
       </c>
       <c r="Y4">
-        <v>-0.07863185764345416</v>
+        <v>0.0136328460799576</v>
       </c>
       <c r="Z4">
-        <v>0.1880371139290727</v>
+        <v>0.4622768585080892</v>
       </c>
       <c r="AA4">
-        <v>0.002380299955187983</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.05403388445287455</v>
+        <v>0.0530752498901797</v>
       </c>
       <c r="AC4">
-        <v>-0.05165358449768657</v>
+        <v>-0.0530752498901797</v>
       </c>
       <c r="AD4">
-        <v>401.8</v>
+        <v>9086</v>
       </c>
       <c r="AE4">
-        <v>7.319644176673023</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>409.119644176673</v>
+        <v>9086</v>
       </c>
       <c r="AG4">
-        <v>325.319644176673</v>
+        <v>2895.2</v>
       </c>
       <c r="AH4">
-        <v>0.8605442564014836</v>
+        <v>0.3970320911696847</v>
       </c>
       <c r="AI4">
-        <v>0.7648244902397885</v>
+        <v>0.4191442740168377</v>
       </c>
       <c r="AJ4">
-        <v>0.830703078903545</v>
+        <v>0.1734275787708159</v>
       </c>
       <c r="AK4">
-        <v>0.7211382797803133</v>
+        <v>0.1869475097987305</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>143.5</v>
-      </c>
-      <c r="AP4">
-        <v>116.1855872059547</v>
       </c>
     </row>
     <row r="5">
@@ -981,13 +972,13 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0546</v>
+        <v>0.0131</v>
       </c>
       <c r="E5">
-        <v>0.0265</v>
+        <v>-0.125</v>
       </c>
       <c r="F5">
-        <v>0.0541</v>
+        <v>-0.00411</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -996,103 +987,97 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.005111219349110885</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.003655163635753078</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1012.7</v>
+        <v>409.2</v>
       </c>
       <c r="L5">
-        <v>0.2003244120032441</v>
+        <v>0.1135373602286285</v>
       </c>
       <c r="M5">
-        <v>715.2</v>
+        <v>648.3</v>
       </c>
       <c r="N5">
-        <v>0.08067772902119597</v>
+        <v>0.09569568683021874</v>
       </c>
       <c r="O5">
-        <v>0.706230867976696</v>
+        <v>1.584310850439883</v>
       </c>
       <c r="P5">
-        <v>654.2</v>
+        <v>537.9</v>
       </c>
       <c r="Q5">
-        <v>0.07379665873275502</v>
+        <v>0.07939952174298112</v>
       </c>
       <c r="R5">
-        <v>0.6459958526710773</v>
+        <v>1.314516129032258</v>
       </c>
       <c r="S5">
-        <v>61</v>
+        <v>110.4</v>
       </c>
       <c r="T5">
-        <v>0.08529082774049217</v>
+        <v>0.1702915316982878</v>
       </c>
       <c r="U5">
-        <v>1069.7</v>
+        <v>957.6</v>
       </c>
       <c r="V5">
-        <v>0.120666899795824</v>
+        <v>0.1413515189088655</v>
       </c>
       <c r="W5">
-        <v>0.1276791567905593</v>
+        <v>0.05138186064616582</v>
       </c>
       <c r="X5">
-        <v>0.0816217603821064</v>
+        <v>0.09199688565210991</v>
       </c>
       <c r="Y5">
-        <v>0.04605739640845287</v>
+        <v>-0.04061502500594408</v>
       </c>
       <c r="Z5">
-        <v>0.2017342427656131</v>
+        <v>0.1786711085332421</v>
       </c>
       <c r="AA5">
-        <v>0.0007373716682430524</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.05249099484271268</v>
+        <v>0.05742430414328496</v>
       </c>
       <c r="AC5">
-        <v>-0.05175362317446962</v>
+        <v>-0.05742430414328496</v>
       </c>
       <c r="AD5">
-        <v>13277.5</v>
+        <v>11869</v>
       </c>
       <c r="AE5">
-        <v>360.3062641221987</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>13637.8062641222</v>
+        <v>11869</v>
       </c>
       <c r="AG5">
-        <v>12568.1062641222</v>
+        <v>10911.4</v>
       </c>
       <c r="AH5">
-        <v>0.6060518279024067</v>
+        <v>0.6366259735244266</v>
       </c>
       <c r="AI5">
-        <v>0.603990455087676</v>
+        <v>0.6094699167620916</v>
       </c>
       <c r="AJ5">
-        <v>0.586390266920259</v>
+        <v>0.6169512608843153</v>
       </c>
       <c r="AK5">
-        <v>0.5842965812800218</v>
+        <v>0.5892734666544254</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>135.6230847803882</v>
-      </c>
-      <c r="AP5">
-        <v>128.3769792045168</v>
       </c>
     </row>
     <row r="6">
@@ -1112,13 +1097,13 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0701</v>
+        <v>0.0166</v>
       </c>
       <c r="E6">
-        <v>0.077</v>
+        <v>-0.0917</v>
       </c>
       <c r="F6">
-        <v>0.0709</v>
+        <v>0.0158</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1133,85 +1118,85 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>956.5</v>
+        <v>375.1</v>
       </c>
       <c r="L6">
-        <v>0.2608754943406518</v>
+        <v>0.1491807190582246</v>
       </c>
       <c r="M6">
-        <v>624.4</v>
+        <v>625</v>
       </c>
       <c r="N6">
-        <v>0.08476094806287839</v>
+        <v>0.1454909446436054</v>
       </c>
       <c r="O6">
-        <v>0.6527966544694197</v>
+        <v>1.666222340709144</v>
       </c>
       <c r="P6">
-        <v>477.4</v>
+        <v>609.3</v>
       </c>
       <c r="Q6">
-        <v>0.0648060163440393</v>
+        <v>0.141836212114158</v>
       </c>
       <c r="R6">
-        <v>0.4991113434396236</v>
+        <v>1.62436683551053</v>
       </c>
       <c r="S6">
-        <v>147</v>
+        <v>15.70000000000005</v>
       </c>
       <c r="T6">
-        <v>0.2354260089686099</v>
+        <v>0.02512000000000007</v>
       </c>
       <c r="U6">
-        <v>912.9</v>
+        <v>920.4</v>
       </c>
       <c r="V6">
-        <v>0.1239241984090354</v>
+        <v>0.214255784719959</v>
       </c>
       <c r="W6">
-        <v>0.1597521461736313</v>
+        <v>0.06188033060032665</v>
       </c>
       <c r="X6">
-        <v>0.07358402387321815</v>
+        <v>0.09634007493026271</v>
       </c>
       <c r="Y6">
-        <v>0.08616812230041317</v>
+        <v>-0.03445974432993607</v>
       </c>
       <c r="Z6">
-        <v>0.3352811002597023</v>
+        <v>0.1884956481974317</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.05207449625836538</v>
+        <v>0.05779730971524458</v>
       </c>
       <c r="AC6">
-        <v>-0.05207449625836538</v>
+        <v>-0.05779730971524458</v>
       </c>
       <c r="AD6">
-        <v>8556.1</v>
+        <v>8234.799999999999</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>8556.1</v>
+        <v>8234.799999999999</v>
       </c>
       <c r="AG6">
-        <v>7643.200000000001</v>
+        <v>7314.4</v>
       </c>
       <c r="AH6">
-        <v>0.5373523334610336</v>
+        <v>0.6571752350246597</v>
       </c>
       <c r="AI6">
-        <v>0.5608497863079788</v>
+        <v>0.5930887458047045</v>
       </c>
       <c r="AJ6">
-        <v>0.509213980199603</v>
+        <v>0.6299977605898262</v>
       </c>
       <c r="AK6">
-        <v>0.532898268805734</v>
+        <v>0.5641998734977861</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1228,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Capitec Bank Holdings Limited (JSE:CPI)</t>
+          <t>Sasfin Holdings Limited (JSE:SFN)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1237,13 +1222,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.187</v>
-      </c>
-      <c r="E7">
-        <v>0.209</v>
-      </c>
-      <c r="F7">
-        <v>0.204</v>
+        <v>-0.00658</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1252,91 +1231,91 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.01210646284497872</v>
+        <v>0.0005037364209535068</v>
       </c>
       <c r="J7">
-        <v>0.009153197772743146</v>
+        <v>0.0005037364209535068</v>
       </c>
       <c r="K7">
-        <v>380.6</v>
+        <v>-2.6</v>
       </c>
       <c r="L7">
-        <v>0.3698017877963467</v>
+        <v>-0.05048543689320389</v>
       </c>
       <c r="M7">
-        <v>107.2</v>
+        <v>2.7</v>
       </c>
       <c r="N7">
-        <v>0.008970411032266703</v>
+        <v>0.05252918287937744</v>
       </c>
       <c r="O7">
-        <v>0.281660535995796</v>
+        <v>-1.038461538461539</v>
       </c>
       <c r="P7">
-        <v>85.09999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="Q7">
-        <v>0.0071211005489356</v>
+        <v>0.05252918287937744</v>
       </c>
       <c r="R7">
-        <v>0.2235943247503941</v>
+        <v>-1.038461538461539</v>
       </c>
       <c r="S7">
-        <v>22.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0.2061567164179104</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>2442.3</v>
+        <v>91.7</v>
       </c>
       <c r="V7">
-        <v>0.2043697282099344</v>
+        <v>1.784046692607004</v>
       </c>
       <c r="W7">
-        <v>0.2864022876062909</v>
+        <v>-0.0231729055258467</v>
       </c>
       <c r="X7">
-        <v>0.0498138475203162</v>
+        <v>0.2038594702319572</v>
       </c>
       <c r="Y7">
-        <v>0.2365884400859747</v>
+        <v>-0.2270323757578039</v>
       </c>
       <c r="Z7">
-        <v>-8.279311216441949</v>
+        <v>0.11678526550147</v>
       </c>
       <c r="AA7">
-        <v>-0.0757821729861838</v>
+        <v>5.882899166381556e-05</v>
       </c>
       <c r="AB7">
-        <v>0.04908755982992508</v>
+        <v>0.06400698860822952</v>
       </c>
       <c r="AC7">
-        <v>-0.1248697328161089</v>
+        <v>-0.06394815961656571</v>
       </c>
       <c r="AD7">
-        <v>440.1</v>
+        <v>308.4</v>
       </c>
       <c r="AE7">
-        <v>118.7001421997395</v>
+        <v>0.03028787160447198</v>
       </c>
       <c r="AF7">
-        <v>558.8001421997395</v>
+        <v>308.4302878716044</v>
       </c>
       <c r="AG7">
-        <v>-1883.499857800261</v>
+        <v>216.7302878716044</v>
       </c>
       <c r="AH7">
-        <v>0.0446711329139766</v>
+        <v>0.8571548818082244</v>
       </c>
       <c r="AI7">
-        <v>0.2683313824936792</v>
+        <v>0.7564566505020841</v>
       </c>
       <c r="AJ7">
-        <v>-0.187098295522448</v>
+        <v>0.8083021488992951</v>
       </c>
       <c r="AK7">
-        <v>5.234854369636432</v>
+        <v>0.6857896100124959</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1345,10 +1324,132 @@
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>12.15745856353591</v>
+        <v>9637.499999999998</v>
       </c>
       <c r="AP7">
-        <v>-52.03038281216189</v>
+        <v>6772.821495987639</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nedbank Limited (JSE:NBKP)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>0.0129</v>
+      </c>
+      <c r="E8">
+        <v>-0.0575</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>348.5</v>
+      </c>
+      <c r="L8">
+        <v>0.1639228598306679</v>
+      </c>
+      <c r="M8">
+        <v>62.579</v>
+      </c>
+      <c r="N8">
+        <v>0.318792664289353</v>
+      </c>
+      <c r="O8">
+        <v>0.1795667144906743</v>
+      </c>
+      <c r="P8">
+        <v>17.379</v>
+      </c>
+      <c r="Q8">
+        <v>0.0885328578706062</v>
+      </c>
+      <c r="R8">
+        <v>0.04986800573888091</v>
+      </c>
+      <c r="S8">
+        <v>45.2</v>
+      </c>
+      <c r="T8">
+        <v>0.7222870291950975</v>
+      </c>
+      <c r="U8">
+        <v>508.8</v>
+      </c>
+      <c r="V8">
+        <v>2.591951095262353</v>
+      </c>
+      <c r="W8">
+        <v>0.06279392421485072</v>
+      </c>
+      <c r="X8">
+        <v>0.9976247840984154</v>
+      </c>
+      <c r="Y8">
+        <v>-0.9348308598835646</v>
+      </c>
+      <c r="Z8">
+        <v>0.1882482113763548</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0.07581836828137212</v>
+      </c>
+      <c r="AC8">
+        <v>-0.07581836828137212</v>
+      </c>
+      <c r="AD8">
+        <v>7095.9</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>7095.9</v>
+      </c>
+      <c r="AG8">
+        <v>6587.099999999999</v>
+      </c>
+      <c r="AH8">
+        <v>0.9730808260881489</v>
+      </c>
+      <c r="AI8">
+        <v>0.6012353628984426</v>
+      </c>
+      <c r="AJ8">
+        <v>0.9710617094672288</v>
+      </c>
+      <c r="AK8">
+        <v>0.5832698744399384</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
